--- a/FASE II - Ejecucion/6000 Pasivos y Patrimonio/6100 Cuentas por pagar/6101 - AUDITORIA DE CUENTAS POR PAGAR.xlsx
+++ b/FASE II - Ejecucion/6000 Pasivos y Patrimonio/6100 Cuentas por pagar/6101 - AUDITORIA DE CUENTAS POR PAGAR.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
   <si>
     <t xml:space="preserve">Cliente:</t>
   </si>
@@ -97,6 +97,9 @@
     <t xml:space="preserve">Créditos</t>
   </si>
   <si>
+    <t xml:space="preserve">NUEVO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Valor</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
   </si>
   <si>
     <t xml:space="preserve">Proveedores Exterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este valor se convirtio en 0</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.3.1.3</t>
@@ -369,7 +375,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,6 +434,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -675,7 +687,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -826,6 +838,18 @@
     </xf>
     <xf numFmtId="165" fontId="17" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="11" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="11" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="11" borderId="8" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="17" fillId="10" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1106,10 +1130,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1119,11 +1143,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.5"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="32.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.27"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1019" min="13" style="1" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="11.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="32.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.27"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="14" style="1" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1140,14 +1164,14 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="5" t="n">
+      <c r="L1" s="5" t="n">
         <v>6101</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="AMF1" s="0"/>
+      <c r="M1" s="5"/>
       <c r="AMG1" s="0"/>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
@@ -1167,14 +1191,14 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="AMF2" s="0"/>
+      <c r="M2" s="7"/>
       <c r="AMG2" s="0"/>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
@@ -1194,14 +1218,14 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="8" t="n">
+      <c r="L3" s="8" t="n">
         <v>44134</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="AMF3" s="0"/>
+      <c r="M3" s="8"/>
       <c r="AMG3" s="0"/>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
@@ -1221,14 +1245,14 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3"/>
+      <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="AMF4" s="0"/>
+      <c r="M4" s="7"/>
       <c r="AMG4" s="0"/>
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
@@ -1248,12 +1272,12 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="9"/>
       <c r="L5" s="9"/>
-      <c r="AMF5" s="0"/>
+      <c r="M5" s="9"/>
       <c r="AMG5" s="0"/>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
@@ -1282,19 +1306,21 @@
       <c r="H7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="L7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="M7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AMF7" s="0"/>
       <c r="AMG7" s="0"/>
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
@@ -1319,15 +1345,17 @@
       <c r="H8" s="16" t="n">
         <v>44196</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="15" t="n">
+      <c r="I8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="15" t="n">
         <v>43830</v>
       </c>
-      <c r="L8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AMF8" s="0"/>
+      <c r="M8" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="AMG8" s="0"/>
       <c r="AMH8" s="0"/>
       <c r="AMI8" s="0"/>
@@ -1342,11 +1370,11 @@
       <c r="F9" s="21"/>
       <c r="G9" s="22"/>
       <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
-      <c r="AMF9" s="0"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="27"/>
       <c r="AMG9" s="0"/>
       <c r="AMH9" s="0"/>
       <c r="AMI9" s="0"/>
@@ -1355,7 +1383,7 @@
     <row r="10" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28"/>
       <c r="B10" s="29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -1363,13 +1391,13 @@
       <c r="F10" s="30"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="27"/>
-      <c r="AMF10" s="0"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="M10" s="27"/>
       <c r="AMG10" s="0"/>
       <c r="AMH10" s="0"/>
       <c r="AMI10" s="0"/>
@@ -1377,10 +1405,10 @@
     </row>
     <row r="11" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19" t="n">
@@ -1399,20 +1427,22 @@
         <f aca="false">E11-F11+G11</f>
         <v>15084.07</v>
       </c>
-      <c r="I11" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="36" t="s">
+      <c r="I11" s="32" t="n">
+        <v>15084.07</v>
+      </c>
+      <c r="J11" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="19" t="n">
+      <c r="K11" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="19" t="n">
         <v>13346</v>
       </c>
-      <c r="L11" s="27" t="n">
-        <f aca="false">H11-K11</f>
+      <c r="M11" s="27" t="n">
+        <f aca="false">H11-L11</f>
         <v>1738.07000000001</v>
       </c>
-      <c r="AMF11" s="0"/>
       <c r="AMG11" s="0"/>
       <c r="AMH11" s="0"/>
       <c r="AMI11" s="0"/>
@@ -1420,42 +1450,47 @@
     </row>
     <row r="12" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19" t="n">
         <v>21895</v>
       </c>
-      <c r="E12" s="19" t="n">
+      <c r="E12" s="38" t="n">
         <v>21895</v>
       </c>
-      <c r="F12" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="32" t="n">
+      <c r="F12" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="38" t="n">
         <f aca="false">E12-F12+G12</f>
         <v>21895</v>
       </c>
-      <c r="I12" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="35" t="s">
+      <c r="I12" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="27" t="n">
-        <f aca="false">H12-K12</f>
+      <c r="K12" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="27" t="n">
+        <f aca="false">H12-L12</f>
         <v>21895</v>
       </c>
-      <c r="AMF12" s="0"/>
+      <c r="O12" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="AMG12" s="0"/>
       <c r="AMH12" s="0"/>
       <c r="AMI12" s="0"/>
@@ -1463,10 +1498,10 @@
     </row>
     <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19" t="n">
@@ -1485,26 +1520,28 @@
         <f aca="false">E13-F13+G13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="27" t="n">
-        <f aca="false">H13-K13</f>
-        <v>0</v>
-      </c>
-      <c r="AMF13" s="0"/>
+      <c r="I13" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="27" t="n">
+        <f aca="false">H13-L13</f>
+        <v>0</v>
+      </c>
       <c r="AMG13" s="0"/>
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="35"/>
       <c r="B14" s="35"/>
       <c r="C14" s="19"/>
@@ -1522,28 +1559,30 @@
         <f aca="false">E14-F14+G14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="35"/>
+      <c r="I14" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="J14" s="35"/>
-      <c r="K14" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="27" t="n">
-        <f aca="false">H14-K14</f>
-        <v>0</v>
-      </c>
-      <c r="AMF14" s="0"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="27" t="n">
+        <f aca="false">H14-L14</f>
+        <v>0</v>
+      </c>
       <c r="AMG14" s="0"/>
       <c r="AMH14" s="0"/>
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="42"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" s="19"/>
-      <c r="D15" s="43" t="n">
+      <c r="D15" s="46" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="30"/>
@@ -1557,32 +1596,34 @@
         <f aca="false">E15-F15+G15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="27" t="n">
-        <f aca="false">H15-K15</f>
-        <v>0</v>
-      </c>
-      <c r="AMF15" s="0"/>
+      <c r="I15" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="47"/>
+      <c r="K15" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="27" t="n">
+        <f aca="false">H15-L15</f>
+        <v>0</v>
+      </c>
       <c r="AMG15" s="0"/>
       <c r="AMH15" s="0"/>
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>35</v>
+      <c r="A16" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>37</v>
       </c>
       <c r="C16" s="19"/>
-      <c r="D16" s="43" t="n">
+      <c r="D16" s="46" t="n">
         <v>895</v>
       </c>
       <c r="E16" s="30" t="n">
@@ -1598,31 +1639,33 @@
         <f aca="false">E16-F16+G16</f>
         <v>1812.62</v>
       </c>
-      <c r="I16" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="45" t="s">
+      <c r="I16" s="32" t="n">
+        <v>1812.62</v>
+      </c>
+      <c r="J16" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="19" t="n">
+      <c r="K16" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="19" t="n">
         <v>1134</v>
       </c>
-      <c r="L16" s="27" t="n">
-        <f aca="false">H16-K16</f>
+      <c r="M16" s="27" t="n">
+        <f aca="false">H16-L16</f>
         <v>678.62</v>
       </c>
-      <c r="AMF16" s="0"/>
       <c r="AMG16" s="0"/>
       <c r="AMH16" s="0"/>
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="30" t="n">
@@ -1641,26 +1684,28 @@
         <f aca="false">E17-F17+G17</f>
         <v>7556.28</v>
       </c>
-      <c r="I17" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" s="19" t="n">
+      <c r="I17" s="32" t="n">
+        <v>7556.28</v>
+      </c>
+      <c r="J17" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="19" t="n">
         <v>2070</v>
       </c>
-      <c r="L17" s="27" t="n">
-        <f aca="false">H17-K17</f>
+      <c r="M17" s="27" t="n">
+        <f aca="false">H17-L17</f>
         <v>5486.28</v>
       </c>
-      <c r="AMF17" s="0"/>
       <c r="AMG17" s="0"/>
       <c r="AMH17" s="0"/>
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="35"/>
       <c r="B18" s="35"/>
       <c r="C18" s="19"/>
@@ -1678,28 +1723,30 @@
         <f aca="false">E18-F18+G18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="27" t="n">
-        <f aca="false">H18-K18</f>
-        <v>0</v>
-      </c>
-      <c r="AMF18" s="0"/>
+      <c r="I18" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="27" t="n">
+        <f aca="false">H18-L18</f>
+        <v>0</v>
+      </c>
       <c r="AMG18" s="0"/>
       <c r="AMH18" s="0"/>
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
-    <row r="19" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="35"/>
       <c r="B19" s="29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" s="19"/>
-      <c r="D19" s="43" t="n">
+      <c r="D19" s="46" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="30"/>
@@ -1713,29 +1760,31 @@
         <f aca="false">E19-F19+G19</f>
         <v>0</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="27" t="n">
-        <f aca="false">H19-K19</f>
-        <v>0</v>
-      </c>
-      <c r="AMF19" s="0"/>
+      <c r="I19" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="47"/>
+      <c r="K19" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="27" t="n">
+        <f aca="false">H19-L19</f>
+        <v>0</v>
+      </c>
       <c r="AMG19" s="0"/>
       <c r="AMH19" s="0"/>
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="30" t="n">
@@ -1754,26 +1803,28 @@
         <f aca="false">E20-F20+G20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="19" t="n">
+      <c r="I20" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="19" t="n">
         <v>1105</v>
       </c>
-      <c r="L20" s="27" t="n">
-        <f aca="false">H20-K20</f>
+      <c r="M20" s="27" t="n">
+        <f aca="false">H20-L20</f>
         <v>-1105</v>
       </c>
-      <c r="AMF20" s="0"/>
       <c r="AMG20" s="0"/>
       <c r="AMH20" s="0"/>
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="19"/>
@@ -1791,28 +1842,30 @@
         <f aca="false">E21-F21+G21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="27" t="n">
-        <f aca="false">H21-K21</f>
-        <v>0</v>
-      </c>
-      <c r="AMF21" s="0"/>
+      <c r="I21" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="27" t="n">
+        <f aca="false">H21-L21</f>
+        <v>0</v>
+      </c>
       <c r="AMG21" s="0"/>
       <c r="AMH21" s="0"/>
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="35"/>
       <c r="B22" s="29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C22" s="19"/>
-      <c r="D22" s="43" t="n">
+      <c r="D22" s="46" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="30"/>
@@ -1826,18 +1879,20 @@
         <f aca="false">E22-F22+G22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="44"/>
-      <c r="J22" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="27" t="n">
-        <f aca="false">H22-K22</f>
-        <v>0</v>
-      </c>
-      <c r="AMF22" s="0"/>
+      <c r="I22" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="47"/>
+      <c r="K22" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="27" t="n">
+        <f aca="false">H22-L22</f>
+        <v>0</v>
+      </c>
       <c r="AMG22" s="0"/>
       <c r="AMH22" s="0"/>
       <c r="AMI22" s="0"/>
@@ -1845,10 +1900,10 @@
     </row>
     <row r="23" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19" t="n">
@@ -1867,20 +1922,22 @@
         <f aca="false">E23-F23+G23</f>
         <v>1721.39</v>
       </c>
-      <c r="I23" s="33" t="s">
-        <v>43</v>
+      <c r="I23" s="32" t="n">
+        <v>1721.39</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="27" t="n">
-        <f aca="false">H23-K23</f>
+        <v>45</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="27" t="n">
+        <f aca="false">H23-L23</f>
         <v>1721.39</v>
       </c>
-      <c r="AMF23" s="0"/>
       <c r="AMG23" s="0"/>
       <c r="AMH23" s="0"/>
       <c r="AMI23" s="0"/>
@@ -1903,28 +1960,30 @@
       <c r="H24" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="J24" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="27" t="n">
-        <f aca="false">H24-K24</f>
-        <v>0</v>
-      </c>
-      <c r="AMF24" s="0"/>
+      <c r="I24" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="L24" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="27" t="n">
+        <f aca="false">H24-L24</f>
+        <v>0</v>
+      </c>
       <c r="AMG24" s="0"/>
       <c r="AMH24" s="0"/>
       <c r="AMI24" s="0"/>
       <c r="AMJ24" s="0"/>
     </row>
     <row r="25" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="19"/>
       <c r="D25" s="32" t="n">
         <v>0</v>
@@ -1936,270 +1995,263 @@
       <c r="G25" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="H25" s="48"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="27" t="n">
-        <f aca="false">H25-K25</f>
-        <v>0</v>
-      </c>
-      <c r="AMF25" s="0"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="27" t="n">
+        <f aca="false">H25-L25</f>
+        <v>0</v>
+      </c>
       <c r="AMG25" s="0"/>
       <c r="AMH25" s="0"/>
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
-    <row r="26" s="56" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="51"/>
-      <c r="B26" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="53" t="n">
+    <row r="26" s="59" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="54"/>
+      <c r="B26" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="55"/>
+      <c r="D26" s="56" t="n">
         <f aca="false">SUM(D9:D24)</f>
         <v>42430</v>
       </c>
-      <c r="E26" s="53" t="n">
+      <c r="E26" s="56" t="n">
         <f aca="false">SUM(E9:E24)</f>
         <v>30706.39</v>
       </c>
-      <c r="F26" s="53" t="n">
+      <c r="F26" s="56" t="n">
         <f aca="false">SUM(F9:F24)</f>
         <v>173922.05</v>
       </c>
-      <c r="G26" s="53" t="n">
+      <c r="G26" s="56" t="n">
         <f aca="false">SUM(G9:G24)</f>
         <v>191285.02</v>
       </c>
-      <c r="H26" s="54" t="n">
+      <c r="H26" s="57" t="n">
         <f aca="false">SUM(H9:H24)</f>
         <v>48069.36</v>
       </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="53" t="n">
-        <f aca="false">SUM(K9:K24)</f>
+      <c r="I26" s="57" t="n">
+        <f aca="false">SUM(I9:I24)</f>
+        <v>26174.36</v>
+      </c>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="56" t="n">
+        <f aca="false">SUM(L9:L24)</f>
         <v>17655</v>
       </c>
-      <c r="L26" s="55" t="n">
-        <f aca="false">SUM(L9:L24)</f>
+      <c r="M26" s="58" t="n">
+        <f aca="false">SUM(M9:M24)</f>
         <v>30414.36</v>
       </c>
-      <c r="AMF26" s="0"/>
       <c r="AMG26" s="0"/>
       <c r="AMH26" s="0"/>
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="59" t="s">
-        <v>48</v>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="62" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="61" t="n">
+      <c r="B29" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="63"/>
+      <c r="D29" s="64" t="n">
         <v>44073</v>
       </c>
-      <c r="E29" s="61" t="n">
+      <c r="E29" s="64" t="n">
         <v>44196</v>
       </c>
-      <c r="F29" s="61" t="n">
+      <c r="F29" s="64" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="62"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="66"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="69"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="68"/>
-      <c r="D31" s="69" t="n">
+      <c r="B31" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="71"/>
+      <c r="D31" s="72" t="n">
         <f aca="false">SUM(D10:D14)</f>
         <v>39848</v>
       </c>
-      <c r="E31" s="70" t="n">
+      <c r="E31" s="73" t="n">
         <f aca="false">SUM(H10:H14)</f>
         <v>36979.07</v>
       </c>
-      <c r="F31" s="70" t="n">
-        <f aca="false">SUM(K10:K14)</f>
+      <c r="F31" s="73" t="n">
+        <f aca="false">SUM(L10:L14)</f>
         <v>13346</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="69" t="n">
+      <c r="B32" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="66"/>
+      <c r="D32" s="72" t="n">
         <f aca="false">SUM(D15:D17)</f>
         <v>895</v>
       </c>
-      <c r="E32" s="70" t="n">
+      <c r="E32" s="73" t="n">
         <f aca="false">SUM(H16:H18)</f>
         <v>9368.9</v>
       </c>
-      <c r="F32" s="70" t="n">
-        <f aca="false">SUM(K16:K18)</f>
+      <c r="F32" s="73" t="n">
+        <f aca="false">SUM(L16:L18)</f>
         <v>3204</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="69" t="n">
+      <c r="B33" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="66"/>
+      <c r="D33" s="72" t="n">
         <f aca="false">SUM(D19:D23)</f>
         <v>1687</v>
       </c>
-      <c r="E33" s="70" t="n">
+      <c r="E33" s="73" t="n">
         <f aca="false">SUM(H19:H23)</f>
         <v>1721.39</v>
       </c>
-      <c r="F33" s="70" t="n">
-        <f aca="false">SUM(K19:K23)</f>
+      <c r="F33" s="73" t="n">
+        <f aca="false">SUM(L19:L23)</f>
         <v>1105</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="71"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="74" t="n">
+      <c r="B35" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="63"/>
+      <c r="D35" s="77" t="n">
         <f aca="false">+SUM(D31:D33)</f>
         <v>42430</v>
       </c>
-      <c r="E35" s="74" t="n">
+      <c r="E35" s="77" t="n">
         <f aca="false">+SUM(E31:E33)</f>
         <v>48069.36</v>
       </c>
-      <c r="F35" s="75" t="n">
+      <c r="F35" s="78" t="n">
         <f aca="false">+SUM(F31:F33)</f>
         <v>17655</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
+      <c r="A37" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="82"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="J38" s="81"/>
+      <c r="A38" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="K38" s="84"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="80"/>
-      <c r="J39" s="81"/>
+      <c r="A39" s="83"/>
+      <c r="K39" s="84"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="J40" s="81"/>
+      <c r="A40" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40" s="84"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="J41" s="81"/>
+      <c r="A41" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41" s="84"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="J42" s="81"/>
+      <c r="A42" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42" s="84"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="80"/>
-      <c r="J43" s="81"/>
+      <c r="A43" s="83"/>
+      <c r="K43" s="84"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="80"/>
-      <c r="J44" s="81"/>
+      <c r="A44" s="83"/>
+      <c r="K44" s="84"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="82" t="s">
-        <v>55</v>
-      </c>
-      <c r="J45" s="81"/>
+      <c r="A45" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45" s="84"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="83" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A48" s="86" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>

--- a/FASE II - Ejecucion/6000 Pasivos y Patrimonio/6100 Cuentas por pagar/6101 - AUDITORIA DE CUENTAS POR PAGAR.xlsx
+++ b/FASE II - Ejecucion/6000 Pasivos y Patrimonio/6100 Cuentas por pagar/6101 - AUDITORIA DE CUENTAS POR PAGAR.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t xml:space="preserve">Cliente:</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t xml:space="preserve">Créditos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUEVO</t>
   </si>
   <si>
     <t xml:space="preserve">Valor</t>
@@ -375,7 +372,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,12 +431,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -687,7 +678,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -840,15 +831,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="17" fillId="11" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="17" fillId="11" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="17" fillId="11" borderId="8" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="8" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1132,8 +1119,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1143,11 +1130,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.5"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="11.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="32.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.27"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="14" style="1" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="32.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.27"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1019" min="13" style="1" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1164,14 +1151,14 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="5" t="n">
+      <c r="K1" s="5" t="n">
         <v>6101</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="AMF1" s="0"/>
       <c r="AMG1" s="0"/>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
@@ -1191,14 +1178,14 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="AMF2" s="0"/>
       <c r="AMG2" s="0"/>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
@@ -1218,14 +1205,14 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="8" t="n">
+      <c r="K3" s="8" t="n">
         <v>44134</v>
       </c>
-      <c r="M3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="AMF3" s="0"/>
       <c r="AMG3" s="0"/>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
@@ -1245,14 +1232,14 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="AMF4" s="0"/>
       <c r="AMG4" s="0"/>
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
@@ -1272,12 +1259,12 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="K5" s="9"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="AMF5" s="0"/>
       <c r="AMG5" s="0"/>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
@@ -1306,21 +1293,19 @@
       <c r="H7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="11" t="s">
+      <c r="L7" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="AMF7" s="0"/>
       <c r="AMG7" s="0"/>
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
@@ -1345,17 +1330,15 @@
       <c r="H8" s="16" t="n">
         <v>44196</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="15" t="n">
+        <v>43830</v>
+      </c>
+      <c r="L8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="15" t="n">
-        <v>43830</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="AMF8" s="0"/>
       <c r="AMG8" s="0"/>
       <c r="AMH8" s="0"/>
       <c r="AMI8" s="0"/>
@@ -1370,11 +1353,11 @@
       <c r="F9" s="21"/>
       <c r="G9" s="22"/>
       <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="27"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="AMF9" s="0"/>
       <c r="AMG9" s="0"/>
       <c r="AMH9" s="0"/>
       <c r="AMI9" s="0"/>
@@ -1383,7 +1366,7 @@
     <row r="10" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28"/>
       <c r="B10" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -1391,13 +1374,13 @@
       <c r="F10" s="30"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="27"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="27"/>
+      <c r="AMF10" s="0"/>
       <c r="AMG10" s="0"/>
       <c r="AMH10" s="0"/>
       <c r="AMI10" s="0"/>
@@ -1405,10 +1388,10 @@
     </row>
     <row r="11" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>29</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19" t="n">
@@ -1427,22 +1410,20 @@
         <f aca="false">E11-F11+G11</f>
         <v>15084.07</v>
       </c>
-      <c r="I11" s="32" t="n">
-        <v>15084.07</v>
-      </c>
-      <c r="J11" s="33" t="s">
+      <c r="I11" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="19" t="n">
+      <c r="K11" s="19" t="n">
         <v>13346</v>
       </c>
-      <c r="M11" s="27" t="n">
-        <f aca="false">H11-L11</f>
+      <c r="L11" s="27" t="n">
+        <f aca="false">H11-K11</f>
         <v>1738.07000000001</v>
       </c>
+      <c r="AMF11" s="0"/>
       <c r="AMG11" s="0"/>
       <c r="AMH11" s="0"/>
       <c r="AMI11" s="0"/>
@@ -1450,47 +1431,45 @@
     </row>
     <row r="12" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>31</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19" t="n">
         <v>21895</v>
       </c>
-      <c r="E12" s="38" t="n">
-        <v>21895</v>
-      </c>
-      <c r="F12" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="38" t="n">
+      <c r="E12" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="32" t="n">
         <f aca="false">E12-F12+G12</f>
-        <v>21895</v>
-      </c>
-      <c r="I12" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="27" t="n">
+        <f aca="false">H12-K12</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="27" t="n">
-        <f aca="false">H12-L12</f>
-        <v>21895</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="AMF12" s="0"/>
       <c r="AMG12" s="0"/>
       <c r="AMH12" s="0"/>
       <c r="AMI12" s="0"/>
@@ -1498,10 +1477,10 @@
     </row>
     <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>33</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>34</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19" t="n">
@@ -1520,28 +1499,26 @@
         <f aca="false">E13-F13+G13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="32" t="n">
-        <v>0</v>
+      <c r="I13" s="41" t="s">
+        <v>32</v>
       </c>
       <c r="J13" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="27" t="n">
-        <f aca="false">H13-L13</f>
-        <v>0</v>
-      </c>
+      <c r="K13" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="27" t="n">
+        <f aca="false">H13-K13</f>
+        <v>0</v>
+      </c>
+      <c r="AMF13" s="0"/>
       <c r="AMG13" s="0"/>
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="35"/>
       <c r="B14" s="35"/>
       <c r="C14" s="19"/>
@@ -1559,30 +1536,28 @@
         <f aca="false">E14-F14+G14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" s="35"/>
       <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="27" t="n">
-        <f aca="false">H14-L14</f>
-        <v>0</v>
-      </c>
+      <c r="K14" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="27" t="n">
+        <f aca="false">H14-K14</f>
+        <v>0</v>
+      </c>
+      <c r="AMF14" s="0"/>
       <c r="AMG14" s="0"/>
       <c r="AMH14" s="0"/>
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="45"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="19"/>
-      <c r="D15" s="46" t="n">
+      <c r="D15" s="45" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="30"/>
@@ -1596,34 +1571,32 @@
         <f aca="false">E15-F15+G15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="47"/>
-      <c r="K15" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="27" t="n">
-        <f aca="false">H15-L15</f>
-        <v>0</v>
-      </c>
+      <c r="I15" s="46"/>
+      <c r="J15" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="27" t="n">
+        <f aca="false">H15-K15</f>
+        <v>0</v>
+      </c>
+      <c r="AMF15" s="0"/>
       <c r="AMG15" s="0"/>
       <c r="AMH15" s="0"/>
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>37</v>
-      </c>
       <c r="C16" s="19"/>
-      <c r="D16" s="46" t="n">
+      <c r="D16" s="45" t="n">
         <v>895</v>
       </c>
       <c r="E16" s="30" t="n">
@@ -1639,33 +1612,31 @@
         <f aca="false">E16-F16+G16</f>
         <v>1812.62</v>
       </c>
-      <c r="I16" s="32" t="n">
-        <v>1812.62</v>
+      <c r="I16" s="46" t="s">
+        <v>35</v>
       </c>
       <c r="J16" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="L16" s="19" t="n">
+        <v>37</v>
+      </c>
+      <c r="K16" s="19" t="n">
         <v>1134</v>
       </c>
-      <c r="M16" s="27" t="n">
-        <f aca="false">H16-L16</f>
+      <c r="L16" s="27" t="n">
+        <f aca="false">H16-K16</f>
         <v>678.62</v>
       </c>
+      <c r="AMF16" s="0"/>
       <c r="AMG16" s="0"/>
       <c r="AMH16" s="0"/>
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="35" t="s">
         <v>39</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>40</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="30" t="n">
@@ -1684,28 +1655,26 @@
         <f aca="false">E17-F17+G17</f>
         <v>7556.28</v>
       </c>
-      <c r="I17" s="32" t="n">
-        <v>7556.28</v>
-      </c>
-      <c r="J17" s="47" t="s">
+      <c r="I17" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" s="19" t="n">
+      <c r="K17" s="19" t="n">
         <v>2070</v>
       </c>
-      <c r="M17" s="27" t="n">
-        <f aca="false">H17-L17</f>
+      <c r="L17" s="27" t="n">
+        <f aca="false">H17-K17</f>
         <v>5486.28</v>
       </c>
+      <c r="AMF17" s="0"/>
       <c r="AMG17" s="0"/>
       <c r="AMH17" s="0"/>
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="35"/>
       <c r="B18" s="35"/>
       <c r="C18" s="19"/>
@@ -1723,30 +1692,28 @@
         <f aca="false">E18-F18+G18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="27" t="n">
-        <f aca="false">H18-L18</f>
-        <v>0</v>
-      </c>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="27" t="n">
+        <f aca="false">H18-K18</f>
+        <v>0</v>
+      </c>
+      <c r="AMF18" s="0"/>
       <c r="AMG18" s="0"/>
       <c r="AMH18" s="0"/>
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
-    <row r="19" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="35"/>
       <c r="B19" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="19"/>
-      <c r="D19" s="46" t="n">
+      <c r="D19" s="45" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="30"/>
@@ -1760,31 +1727,29 @@
         <f aca="false">E19-F19+G19</f>
         <v>0</v>
       </c>
-      <c r="I19" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="47"/>
-      <c r="K19" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="27" t="n">
-        <f aca="false">H19-L19</f>
-        <v>0</v>
-      </c>
+      <c r="I19" s="46"/>
+      <c r="J19" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="27" t="n">
+        <f aca="false">H19-K19</f>
+        <v>0</v>
+      </c>
+      <c r="AMF19" s="0"/>
       <c r="AMG19" s="0"/>
       <c r="AMH19" s="0"/>
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="35" t="s">
         <v>42</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>43</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="30" t="n">
@@ -1803,28 +1768,26 @@
         <f aca="false">E20-F20+G20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="47" t="s">
+      <c r="I20" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="K20" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="L20" s="19" t="n">
+      <c r="K20" s="19" t="n">
         <v>1105</v>
       </c>
-      <c r="M20" s="27" t="n">
-        <f aca="false">H20-L20</f>
+      <c r="L20" s="27" t="n">
+        <f aca="false">H20-K20</f>
         <v>-1105</v>
       </c>
+      <c r="AMF20" s="0"/>
       <c r="AMG20" s="0"/>
       <c r="AMH20" s="0"/>
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="19"/>
@@ -1842,30 +1805,28 @@
         <f aca="false">E21-F21+G21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="27" t="n">
-        <f aca="false">H21-L21</f>
-        <v>0</v>
-      </c>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="27" t="n">
+        <f aca="false">H21-K21</f>
+        <v>0</v>
+      </c>
+      <c r="AMF21" s="0"/>
       <c r="AMG21" s="0"/>
       <c r="AMH21" s="0"/>
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="35"/>
       <c r="B22" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="19"/>
-      <c r="D22" s="46" t="n">
+      <c r="D22" s="45" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="30"/>
@@ -1879,20 +1840,18 @@
         <f aca="false">E22-F22+G22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="47"/>
-      <c r="K22" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="L22" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="27" t="n">
-        <f aca="false">H22-L22</f>
-        <v>0</v>
-      </c>
+      <c r="I22" s="46"/>
+      <c r="J22" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="27" t="n">
+        <f aca="false">H22-K22</f>
+        <v>0</v>
+      </c>
+      <c r="AMF22" s="0"/>
       <c r="AMG22" s="0"/>
       <c r="AMH22" s="0"/>
       <c r="AMI22" s="0"/>
@@ -1900,10 +1859,10 @@
     </row>
     <row r="23" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>45</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>46</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19" t="n">
@@ -1922,22 +1881,20 @@
         <f aca="false">E23-F23+G23</f>
         <v>1721.39</v>
       </c>
-      <c r="I23" s="32" t="n">
-        <v>1721.39</v>
+      <c r="I23" s="33" t="s">
+        <v>44</v>
       </c>
       <c r="J23" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="L23" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="27" t="n">
-        <f aca="false">H23-L23</f>
+      <c r="K23" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="27" t="n">
+        <f aca="false">H23-K23</f>
         <v>1721.39</v>
       </c>
+      <c r="AMF23" s="0"/>
       <c r="AMG23" s="0"/>
       <c r="AMH23" s="0"/>
       <c r="AMI23" s="0"/>
@@ -1960,30 +1917,28 @@
       <c r="H24" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="32" t="n">
-        <v>0</v>
+      <c r="I24" s="41" t="s">
+        <v>46</v>
       </c>
       <c r="J24" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="K24" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="L24" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="27" t="n">
-        <f aca="false">H24-L24</f>
-        <v>0</v>
-      </c>
+      <c r="K24" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="27" t="n">
+        <f aca="false">H24-K24</f>
+        <v>0</v>
+      </c>
+      <c r="AMF24" s="0"/>
       <c r="AMG24" s="0"/>
       <c r="AMH24" s="0"/>
       <c r="AMI24" s="0"/>
       <c r="AMJ24" s="0"/>
     </row>
     <row r="25" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="19"/>
       <c r="D25" s="32" t="n">
         <v>0</v>
@@ -1995,263 +1950,259 @@
       <c r="G25" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="H25" s="51"/>
+      <c r="H25" s="50"/>
       <c r="I25" s="51"/>
       <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="27" t="n">
-        <f aca="false">H25-L25</f>
-        <v>0</v>
-      </c>
+      <c r="K25" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="27" t="n">
+        <f aca="false">H25-K25</f>
+        <v>0</v>
+      </c>
+      <c r="AMF25" s="0"/>
       <c r="AMG25" s="0"/>
       <c r="AMH25" s="0"/>
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
-    <row r="26" s="59" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56" t="n">
+    <row r="26" s="58" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="53"/>
+      <c r="B26" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="54"/>
+      <c r="D26" s="55" t="n">
         <f aca="false">SUM(D9:D24)</f>
         <v>42430</v>
       </c>
-      <c r="E26" s="56" t="n">
+      <c r="E26" s="55" t="n">
         <f aca="false">SUM(E9:E24)</f>
-        <v>30706.39</v>
-      </c>
-      <c r="F26" s="56" t="n">
+        <v>8811.39</v>
+      </c>
+      <c r="F26" s="55" t="n">
         <f aca="false">SUM(F9:F24)</f>
         <v>173922.05</v>
       </c>
-      <c r="G26" s="56" t="n">
+      <c r="G26" s="55" t="n">
         <f aca="false">SUM(G9:G24)</f>
         <v>191285.02</v>
       </c>
-      <c r="H26" s="57" t="n">
+      <c r="H26" s="56" t="n">
         <f aca="false">SUM(H9:H24)</f>
-        <v>48069.36</v>
-      </c>
-      <c r="I26" s="57" t="n">
-        <f aca="false">SUM(I9:I24)</f>
         <v>26174.36</v>
       </c>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="56" t="n">
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="55" t="n">
+        <f aca="false">SUM(K9:K24)</f>
+        <v>17655</v>
+      </c>
+      <c r="L26" s="57" t="n">
         <f aca="false">SUM(L9:L24)</f>
-        <v>17655</v>
-      </c>
-      <c r="M26" s="58" t="n">
-        <f aca="false">SUM(M9:M24)</f>
-        <v>30414.36</v>
-      </c>
+        <v>8519.36000000001</v>
+      </c>
+      <c r="AMF26" s="0"/>
       <c r="AMG26" s="0"/>
       <c r="AMH26" s="0"/>
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="61" t="s">
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="62" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="64" t="n">
+      <c r="C29" s="62"/>
+      <c r="D29" s="63" t="n">
         <v>44073</v>
       </c>
-      <c r="E29" s="64" t="n">
+      <c r="E29" s="63" t="n">
         <v>44196</v>
       </c>
-      <c r="F29" s="64" t="n">
+      <c r="F29" s="63" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="65"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="69"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="68"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="72" t="n">
+      <c r="B31" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="70"/>
+      <c r="D31" s="71" t="n">
         <f aca="false">SUM(D10:D14)</f>
         <v>39848</v>
       </c>
-      <c r="E31" s="73" t="n">
+      <c r="E31" s="72" t="n">
         <f aca="false">SUM(H10:H14)</f>
-        <v>36979.07</v>
-      </c>
-      <c r="F31" s="73" t="n">
-        <f aca="false">SUM(L10:L14)</f>
+        <v>15084.07</v>
+      </c>
+      <c r="F31" s="72" t="n">
+        <f aca="false">SUM(K10:K14)</f>
         <v>13346</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="66"/>
-      <c r="D32" s="72" t="n">
+      <c r="B32" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="65"/>
+      <c r="D32" s="71" t="n">
         <f aca="false">SUM(D15:D17)</f>
         <v>895</v>
       </c>
-      <c r="E32" s="73" t="n">
+      <c r="E32" s="72" t="n">
         <f aca="false">SUM(H16:H18)</f>
         <v>9368.9</v>
       </c>
-      <c r="F32" s="73" t="n">
-        <f aca="false">SUM(L16:L18)</f>
+      <c r="F32" s="72" t="n">
+        <f aca="false">SUM(K16:K18)</f>
         <v>3204</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="72" t="n">
+      <c r="B33" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="65"/>
+      <c r="D33" s="71" t="n">
         <f aca="false">SUM(D19:D23)</f>
         <v>1687</v>
       </c>
-      <c r="E33" s="73" t="n">
+      <c r="E33" s="72" t="n">
         <f aca="false">SUM(H19:H23)</f>
         <v>1721.39</v>
       </c>
-      <c r="F33" s="73" t="n">
-        <f aca="false">SUM(L19:L23)</f>
+      <c r="F33" s="72" t="n">
+        <f aca="false">SUM(K19:K23)</f>
         <v>1105</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="74"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="77" t="n">
+      <c r="B35" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="62"/>
+      <c r="D35" s="76" t="n">
         <f aca="false">+SUM(D31:D33)</f>
         <v>42430</v>
       </c>
-      <c r="E35" s="77" t="n">
+      <c r="E35" s="76" t="n">
         <f aca="false">+SUM(E31:E33)</f>
-        <v>48069.36</v>
-      </c>
-      <c r="F35" s="78" t="n">
+        <v>26174.36</v>
+      </c>
+      <c r="F35" s="77" t="n">
         <f aca="false">+SUM(F31:F33)</f>
         <v>17655</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
+      <c r="A37" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
       <c r="J37" s="80"/>
       <c r="K37" s="81"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="82"/>
+      <c r="L37" s="81"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="83" t="s">
+      <c r="A38" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" s="83"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="82"/>
+      <c r="J39" s="83"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="K38" s="84"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="83"/>
-      <c r="K39" s="84"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="85" t="s">
+      <c r="J40" s="83"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="K40" s="84"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="83" t="s">
+      <c r="J41" s="83"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="K41" s="84"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="83" t="s">
+      <c r="J42" s="83"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="82"/>
+      <c r="J43" s="83"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="82"/>
+      <c r="J44" s="83"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="K42" s="84"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="83"/>
-      <c r="K43" s="84"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="83"/>
-      <c r="K44" s="84"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="85" t="s">
+      <c r="J45" s="83"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="85" t="s">
         <v>57</v>
-      </c>
-      <c r="K45" s="84"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="86" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
